--- a/TestScenarios/TestScenarios.xlsx
+++ b/TestScenarios/TestScenarios.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59F7926-B85F-4BF1-B623-3E9F65045293}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AFEDB7-C595-4D14-B045-5C234363997D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22265" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="69">
   <si>
     <t>Modules</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>Verify that user cannot create account if password and confirm password do not match</t>
+  </si>
+  <si>
+    <t>Search001</t>
   </si>
 </sst>
 </file>
@@ -572,8 +575,8 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -993,6 +996,9 @@
       <c r="B21" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="C21" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="D21" s="1" t="s">
         <v>24</v>
       </c>
